--- a/JsonExport/excel/Equip.xlsx
+++ b/JsonExport/excel/Equip.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\强子项目\JsonExport\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46403E7D-9AB0-451D-A6E0-FF0BCEFE5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -156,7 +163,8 @@
 每次行动添加当前攻速值，满1点攻击一次，不满1点则累计到下次(若一次加成到3，则本次行动当前武器攻击3次)</t>
   </si>
   <si>
-    <t>num%角色攻速</t>
+    <t>num%角色攻速
+是否通过一个公式来计算即可，用一个梯度函数(2023.12.30)</t>
   </si>
   <si>
     <t>近战：[1,2]
@@ -164,6 +172,9 @@
 远距：[5,10]</t>
   </si>
   <si>
+    <t>是否需要命中率，需要思考(2023.12.30)</t>
+  </si>
+  <si>
     <t>[buffid,buffid,...]</t>
   </si>
   <si>
@@ -275,55 +286,56 @@
     <t>蓝色长剑</t>
   </si>
   <si>
+    <t>[1]</t>
+  </si>
+  <si>
     <t>EquipName_10013</t>
   </si>
   <si>
     <t>黄色长剑</t>
   </si>
   <si>
+    <t>[2]</t>
+  </si>
+  <si>
     <t>EquipName_10014</t>
   </si>
   <si>
     <t>绿色长剑01</t>
   </si>
   <si>
+    <t>[3]</t>
+  </si>
+  <si>
     <t>EquipName_10015</t>
   </si>
   <si>
     <t>绿色长剑02</t>
   </si>
   <si>
+    <t>[4]</t>
+  </si>
+  <si>
     <t>EquipName_10016</t>
   </si>
   <si>
     <t>红色长剑</t>
   </si>
   <si>
-    <t>[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[3,6]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,22 +357,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,30 +510,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -415,13 +748,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,57 +1015,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -777,36 +1393,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.62962962962963" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="8" width="14.125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="14.1296296296296" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.75" style="2" customWidth="1"/>
     <col min="10" max="13" width="24.75" style="2" customWidth="1"/>
     <col min="14" max="14" width="27.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.6296296296296" style="2" customWidth="1"/>
     <col min="16" max="16" width="13" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.62962962962963" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.62962962962963" style="2" customWidth="1"/>
     <col min="20" max="20" width="22" style="2" customWidth="1"/>
     <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.62962962962963" style="2" customWidth="1"/>
     <col min="23" max="24" width="22" style="2" customWidth="1"/>
     <col min="25" max="25" width="28.75" style="2" customWidth="1"/>
     <col min="26" max="26" width="22" style="2" customWidth="1"/>
@@ -814,40 +1430,40 @@
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="17" t="s">
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="17"/>
+      <c r="AA1" s="16"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="2:27">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,13 +1503,13 @@
       <c r="N2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="7" t="s">
@@ -908,26 +1524,26 @@
       <c r="U2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="146.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="146.1" customHeight="1" spans="2:27">
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
@@ -949,236 +1565,238 @@
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
+      <c r="Y3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="X3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>43</v>
+      <c r="AA3" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" spans="2:27">
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" spans="2:27">
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="O5" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="Q5" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="R5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="V5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="W5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="X5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="Y5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="Z5" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="AA5" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" spans="2:27">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:19">
       <c r="B7" s="2">
         <v>10011</v>
       </c>
@@ -1189,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
@@ -1203,16 +1821,16 @@
       <c r="I7" s="2">
         <v>10</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="13">
         <v>0.6</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="13">
         <v>0</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="13">
         <v>0</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="13">
         <v>0</v>
       </c>
       <c r="N7" s="2">
@@ -1234,7 +1852,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21">
       <c r="B8" s="2">
         <v>10012</v>
       </c>
@@ -1245,10 +1863,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2">
         <v>15</v>
@@ -1259,16 +1877,16 @@
       <c r="I8" s="2">
         <v>12</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="13">
         <v>0.65</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="13">
         <v>0</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="13">
         <v>0</v>
       </c>
       <c r="N8" s="2">
@@ -1289,11 +1907,11 @@
       <c r="S8" s="2">
         <v>0.05</v>
       </c>
-      <c r="U8" s="18" t="s">
-        <v>87</v>
+      <c r="U8" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21">
       <c r="B9" s="2">
         <v>10013</v>
       </c>
@@ -1304,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -1318,16 +1936,16 @@
       <c r="I9" s="2">
         <v>15</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="13">
         <v>0.7</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="13">
         <v>0</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="13">
         <v>0</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="13">
         <v>0</v>
       </c>
       <c r="N9" s="2">
@@ -1348,11 +1966,11 @@
       <c r="S9" s="2">
         <v>0.05</v>
       </c>
-      <c r="U9" s="18" t="s">
-        <v>88</v>
+      <c r="U9" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21">
       <c r="B10" s="2">
         <v>10014</v>
       </c>
@@ -1363,10 +1981,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G10" s="2">
         <v>85</v>
@@ -1377,16 +1995,16 @@
       <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="13">
         <v>0.8</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="13">
         <v>0</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="13">
         <v>0</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="13">
         <v>0</v>
       </c>
       <c r="N10" s="2">
@@ -1407,11 +2025,11 @@
       <c r="S10" s="2">
         <v>0.2</v>
       </c>
-      <c r="U10" s="18" t="s">
-        <v>89</v>
+      <c r="U10" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21">
       <c r="B11" s="2">
         <v>10015</v>
       </c>
@@ -1422,10 +2040,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2">
         <v>85</v>
@@ -1436,16 +2054,16 @@
       <c r="I11" s="2">
         <v>22</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="13">
         <v>0.6</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="13">
         <v>0</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="13">
         <v>0.6</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="13">
         <v>0</v>
       </c>
       <c r="N11" s="2">
@@ -1466,11 +2084,11 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="18" t="s">
-        <v>90</v>
+      <c r="U11" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21">
       <c r="B12" s="2">
         <v>10016</v>
       </c>
@@ -1481,10 +2099,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2">
         <v>120</v>
@@ -1495,16 +2113,16 @@
       <c r="I12" s="2">
         <v>25</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="13">
         <v>0.8</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="13">
         <v>0</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="13">
         <v>0</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="13">
         <v>0</v>
       </c>
       <c r="N12" s="2">
@@ -1525,8 +2143,8 @@
       <c r="S12" s="2">
         <v>0.1</v>
       </c>
-      <c r="U12" s="18" t="s">
-        <v>91</v>
+      <c r="U12" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1535,8 +2153,8 @@
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JsonExport/excel/Equip.xlsx
+++ b/JsonExport/excel/Equip.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF2AA6-350C-4B18-BD63-F634AB3A39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>#</t>
   </si>
@@ -324,18 +317,20 @@
   <si>
     <t>[3,6]</t>
   </si>
+  <si>
+    <t>EquipName_10017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色长弓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +341,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -353,155 +349,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,222 +370,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -748,255 +422,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,30 +447,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,62 +471,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1393,36 +778,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.37962962962963" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.62962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="8" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="6" max="8" width="14.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.75" style="2" customWidth="1"/>
     <col min="10" max="13" width="24.75" style="2" customWidth="1"/>
     <col min="14" max="14" width="27.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.6296296296296" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="2" customWidth="1"/>
     <col min="16" max="16" width="13" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.62962962962963" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.62962962962963" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="9.625" style="2" customWidth="1"/>
     <col min="20" max="20" width="22" style="2" customWidth="1"/>
     <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.62962962962963" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.625" style="2" customWidth="1"/>
     <col min="23" max="24" width="22" style="2" customWidth="1"/>
     <col min="25" max="25" width="28.75" style="2" customWidth="1"/>
     <col min="26" max="26" width="22" style="2" customWidth="1"/>
@@ -1430,40 +815,40 @@
     <col min="28" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="14" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
       <c r="Z1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="AA1" s="16"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:27">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1485,65 +870,65 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="146.1" customHeight="1" spans="2:27">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="146.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1565,88 +950,88 @@
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7" t="s">
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14" t="s">
+      <c r="V3" s="10"/>
+      <c r="W3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:27">
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:27">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1661,65 +1046,65 @@
       <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:27">
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
@@ -1738,65 +1123,65 @@
       <c r="H6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="X6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Y6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AA6" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>10011</v>
       </c>
@@ -1821,16 +1206,16 @@
       <c r="I7" s="2">
         <v>10</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="2">
         <v>0.6</v>
       </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
@@ -1852,7 +1237,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>10012</v>
       </c>
@@ -1877,16 +1262,16 @@
       <c r="I8" s="2">
         <v>12</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="2">
         <v>0.65</v>
       </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
@@ -1907,11 +1292,11 @@
       <c r="S8" s="2">
         <v>0.05</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>10013</v>
       </c>
@@ -1936,16 +1321,16 @@
       <c r="I9" s="2">
         <v>15</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="2">
         <v>0.7</v>
       </c>
-      <c r="K9" s="13">
-        <v>0</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
@@ -1966,11 +1351,11 @@
       <c r="S9" s="2">
         <v>0.05</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>10014</v>
       </c>
@@ -1995,16 +1380,16 @@
       <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="2">
         <v>0.8</v>
       </c>
-      <c r="K10" s="13">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
@@ -2025,11 +1410,11 @@
       <c r="S10" s="2">
         <v>0.2</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>10015</v>
       </c>
@@ -2054,16 +1439,16 @@
       <c r="I11" s="2">
         <v>22</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="2">
         <v>0.6</v>
       </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>0.6</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
@@ -2084,11 +1469,11 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>10016</v>
       </c>
@@ -2113,16 +1498,16 @@
       <c r="I12" s="2">
         <v>25</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="2">
         <v>0.8</v>
       </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
@@ -2143,8 +1528,64 @@
       <c r="S12" s="2">
         <v>0.1</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="U12" s="11" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>10017</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P13" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2153,8 +1594,8 @@
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/JsonExport/excel/Equip.xlsx
+++ b/JsonExport/excel/Equip.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QiangZi_Project(Unity)\Qiangzi_Unity\JsonExport\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF2AA6-350C-4B18-BD63-F634AB3A39DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -50,12 +57,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>购买价格</t>
-  </si>
-  <si>
-    <t>出售价格</t>
   </si>
   <si>
     <t>武器基础攻击力</t>
@@ -130,12 +131,6 @@
     <t>策划备注字段</t>
   </si>
   <si>
-    <t>商店购买价格</t>
-  </si>
-  <si>
-    <t>商店出售价格</t>
-  </si>
-  <si>
     <t>总攻击力 = 武器基础攻击力+攻击力加成</t>
   </si>
   <si>
@@ -192,12 +187,6 @@
     <t>EquipName</t>
   </si>
   <si>
-    <t>price_buy</t>
-  </si>
-  <si>
-    <t>price_sell</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -319,18 +308,22 @@
   </si>
   <si>
     <t>EquipName_10017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>白色长弓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,7 +334,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -349,19 +341,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,36 +498,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="6" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -422,13 +736,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,54 +1000,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -778,77 +1369,77 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.62962962962963" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="8" width="14.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="2" customWidth="1"/>
-    <col min="10" max="13" width="24.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="2" customWidth="1"/>
-    <col min="18" max="19" width="9.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="22" style="2" customWidth="1"/>
-    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="2" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.75" style="2" customWidth="1"/>
+    <col min="8" max="11" width="24.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="27.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.6296296296296" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.62962962962963" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.62962962962963" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22" style="2" customWidth="1"/>
+    <col min="19" max="19" width="28.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.62962962962963" style="2" customWidth="1"/>
+    <col min="21" max="22" width="22" style="2" customWidth="1"/>
+    <col min="23" max="23" width="28.75" style="2" customWidth="1"/>
+    <col min="24" max="24" width="22" style="2" customWidth="1"/>
     <col min="25" max="25" width="28.75" style="2" customWidth="1"/>
-    <col min="26" max="26" width="22" style="2" customWidth="1"/>
-    <col min="27" max="27" width="28.75" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="2"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="15" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="16" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="16"/>
+      <c r="Y1" s="12"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="2:25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,324 +1455,299 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="146.1" customHeight="1" spans="2:25">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>24</v>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="146.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="9" t="s">
+    <row r="4" s="1" customFormat="1" spans="2:25">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:25">
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>44</v>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+    <row r="6" s="1" customFormat="1" spans="2:25">
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17">
       <c r="B7" s="2">
         <v>10011</v>
       </c>
@@ -1192,52 +1758,46 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2">
         <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="P7" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S7" s="2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:19">
       <c r="B8" s="2">
         <v>10012</v>
       </c>
@@ -1248,55 +1808,49 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>0.65</v>
       </c>
       <c r="I8" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="P8" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S8" s="2">
         <v>0.05</v>
       </c>
-      <c r="U8" s="11" t="s">
-        <v>80</v>
+      <c r="S8" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:19">
       <c r="B9" s="2">
         <v>10013</v>
       </c>
@@ -1307,55 +1861,49 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="I9" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="P9" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S9" s="2">
         <v>0.05</v>
       </c>
-      <c r="U9" s="11" t="s">
-        <v>83</v>
+      <c r="S9" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:19">
       <c r="B10" s="2">
         <v>10014</v>
       </c>
@@ -1366,55 +1914,49 @@
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2">
-        <v>40</v>
+        <v>0.8</v>
       </c>
       <c r="I10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="P10" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S10" s="2">
         <v>0.2</v>
       </c>
-      <c r="U10" s="11" t="s">
-        <v>86</v>
+      <c r="S10" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:19">
       <c r="B11" s="2">
         <v>10015</v>
       </c>
@@ -1425,19 +1967,19 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2">
-        <v>40</v>
+        <v>0.6</v>
       </c>
       <c r="I11" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>0.6</v>
@@ -1446,34 +1988,28 @@
         <v>0</v>
       </c>
       <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
         <v>0.6</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="P11" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>89</v>
+      <c r="S11" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:19">
       <c r="B12" s="2">
         <v>10016</v>
       </c>
@@ -1484,55 +2020,49 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G12" s="2">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="P12" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="R12" s="2">
         <v>0.1</v>
       </c>
-      <c r="S12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>92</v>
+      <c r="S12" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17">
       <c r="B13" s="2">
         <v>10017</v>
       </c>
@@ -1542,60 +2072,54 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>94</v>
+      <c r="E13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="G13" s="2">
         <v>10</v>
       </c>
       <c r="H13" s="2">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O13" s="2">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="P13" s="2">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="S13" s="2">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>